--- a/duties.xlsx
+++ b/duties.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D33F2E-10CD-4C55-9AEF-1006C562DFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Duties" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Index</t>
   </si>
@@ -28,46 +45,28 @@
     <t>Demo</t>
   </si>
   <si>
+    <t>Dmytro Latyshko</t>
+  </si>
+  <si>
+    <t>Andrii Vanikhin</t>
+  </si>
+  <si>
+    <t>Pavlo Shtefan</t>
+  </si>
+  <si>
+    <t>Olena Mikheyeva</t>
+  </si>
+  <si>
+    <t>Eugene Zinchenko</t>
+  </si>
+  <si>
     <t>Maria Donnik</t>
   </si>
-  <si>
-    <t>Petro Kovtun</t>
-  </si>
-  <si>
-    <t>Iryna Bondar</t>
-  </si>
-  <si>
-    <t>Serhii Mazur</t>
-  </si>
-  <si>
-    <t>Kateryna B.</t>
-  </si>
-  <si>
-    <t>Yurii D.</t>
-  </si>
-  <si>
-    <t>Alina Z.</t>
-  </si>
-  <si>
-    <t>Roman R.</t>
-  </si>
-  <si>
-    <t>Sofia Lysenko</t>
-  </si>
-  <si>
-    <t>Dmytro Vovk</t>
-  </si>
-  <si>
-    <t>Oksana Hryn</t>
-  </si>
-  <si>
-    <t>Oleksii L.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -131,13 +130,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +182,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,6 +216,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,9 +251,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,12 +427,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -447,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,16 +502,283 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7559BEA3B87EF459212D9B4B8BC4B83" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="020926a2805b8117b1690297fff31075">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69b2530c-d032-4638-9e6d-d03ad3bc3a8c" xmlns:ns3="24ccab74-1a8d-4d55-b2b6-44f573dd3e0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7507ed44c30b3df59e2e18f8292da349" ns2:_="" ns3:_="">
+    <xsd:import namespace="69b2530c-d032-4638-9e6d-d03ad3bc3a8c"/>
+    <xsd:import namespace="24ccab74-1a8d-4d55-b2b6-44f573dd3e0c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69b2530c-d032-4638-9e6d-d03ad3bc3a8c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="24ccab74-1a8d-4d55-b2b6-44f573dd3e0c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A26D1-C941-47B2-8418-619012992954}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C855052F-24EB-4575-B63F-A138DCDC8E01}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F2ADE88-E62D-44E7-A172-17E5610B0E64}"/>
 </file>
--- a/duties.xlsx
+++ b/duties.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D33F2E-10CD-4C55-9AEF-1006C562DFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9B4D63-DF54-402B-BD0C-417A84B24F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Duties" sheetId="1" r:id="rId1"/>
+    <sheet name="4th Line" sheetId="1" r:id="rId1"/>
+    <sheet name="Demo" sheetId="2" r:id="rId2"/>
+    <sheet name="Night Tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,24 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>4th Line</t>
-  </si>
-  <si>
-    <t>Night Tests</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>Dmytro Latyshko</t>
-  </si>
-  <si>
-    <t>Andrii Vanikhin</t>
   </si>
   <si>
     <t>Pavlo Shtefan</t>
@@ -60,6 +47,9 @@
     <t>Eugene Zinchenko</t>
   </si>
   <si>
+    <t>Andrii Vanikhin</t>
+  </si>
+  <si>
     <t>Maria Donnik</t>
   </si>
 </sst>
@@ -67,16 +57,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -100,30 +82,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,106 +392,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +425,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7559BEA3B87EF459212D9B4B8BC4B83" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="020926a2805b8117b1690297fff31075">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69b2530c-d032-4638-9e6d-d03ad3bc3a8c" xmlns:ns3="24ccab74-1a8d-4d55-b2b6-44f573dd3e0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7507ed44c30b3df59e2e18f8292da349" ns2:_="" ns3:_="">
     <xsd:import namespace="69b2530c-d032-4638-9e6d-d03ad3bc3a8c"/>
@@ -756,29 +746,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A26D1-C941-47B2-8418-619012992954}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3933480-A8CD-4CDB-8F21-09AB85784D16}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C855052F-24EB-4575-B63F-A138DCDC8E01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FA8478-C49D-471B-86F7-6B09072E1665}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F2ADE88-E62D-44E7-A172-17E5610B0E64}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBB567B-CF54-4A60-9DAC-244AFD0A7428}"/>
 </file>
--- a/duties.xlsx
+++ b/duties.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9B4D63-DF54-402B-BD0C-417A84B24F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{AB9B4D63-DF54-402B-BD0C-417A84B24F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{610FEFDB-E828-43EF-9DAE-A95A650AD4FA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4th Line" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
-  <si>
-    <t>Dmytro Latyshko</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
   <si>
     <t>Pavlo Shtefan</t>
   </si>
   <si>
     <t>Olena Mikheyeva</t>
+  </si>
+  <si>
+    <t>Dmytro Latyshko</t>
   </si>
   <si>
     <t>Eugene Zinchenko</t>
@@ -395,7 +395,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,40 +429,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -472,36 +470,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>1</v>
       </c>
     </row>
@@ -517,15 +618,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7559BEA3B87EF459212D9B4B8BC4B83" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="020926a2805b8117b1690297fff31075">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69b2530c-d032-4638-9e6d-d03ad3bc3a8c" xmlns:ns3="24ccab74-1a8d-4d55-b2b6-44f573dd3e0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7507ed44c30b3df59e2e18f8292da349" ns2:_="" ns3:_="">
     <xsd:import namespace="69b2530c-d032-4638-9e6d-d03ad3bc3a8c"/>
@@ -746,14 +838,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3933480-A8CD-4CDB-8F21-09AB85784D16}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBB567B-CF54-4A60-9DAC-244AFD0A7428}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FA8478-C49D-471B-86F7-6B09072E1665}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBB567B-CF54-4A60-9DAC-244AFD0A7428}"/>
 </file>
--- a/duties.xlsx
+++ b/duties.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{AB9B4D63-DF54-402B-BD0C-417A84B24F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{610FEFDB-E828-43EF-9DAE-A95A650AD4FA}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{AB9B4D63-DF54-402B-BD0C-417A84B24F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41FBD23C-71B0-4C79-8829-E9E7DDD8B4E6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4th Line" sheetId="1" r:id="rId1"/>
     <sheet name="Demo" sheetId="2" r:id="rId2"/>
     <sheet name="Night Tests" sheetId="3" r:id="rId3"/>
+    <sheet name="Retro" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>Pavlo Shtefan</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>Maria Donnik</t>
+  </si>
+  <si>
+    <t>Andrii Volkov</t>
   </si>
 </sst>
 </file>
@@ -394,9 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -472,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,10 +613,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7A3A4-9B33-4BD1-96B1-6D3B7C1DD1FD}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,16 +897,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3933480-A8CD-4CDB-8F21-09AB85784D16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FA8478-C49D-471B-86F7-6B09072E1665}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,5 +911,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FA8478-C49D-471B-86F7-6B09072E1665}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3933480-A8CD-4CDB-8F21-09AB85784D16}"/>
 </file>
--- a/duties.xlsx
+++ b/duties.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{AB9B4D63-DF54-402B-BD0C-417A84B24F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41FBD23C-71B0-4C79-8829-E9E7DDD8B4E6}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{AB9B4D63-DF54-402B-BD0C-417A84B24F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E56DEF97-7CE6-4325-9CA7-B6CF9995217B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4th Line" sheetId="1" r:id="rId1"/>
     <sheet name="Demo" sheetId="2" r:id="rId2"/>
-    <sheet name="Night Tests" sheetId="3" r:id="rId3"/>
-    <sheet name="Retro" sheetId="4" r:id="rId4"/>
+    <sheet name="Retro" sheetId="4" r:id="rId3"/>
+    <sheet name="Night Tests" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,18 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
-    <t>Pavlo Shtefan</t>
+    <t>Eugene Zinchenko</t>
   </si>
   <si>
     <t>Olena Mikheyeva</t>
   </si>
   <si>
     <t>Dmytro Latyshko</t>
-  </si>
-  <si>
-    <t>Eugene Zinchenko</t>
   </si>
   <si>
     <t>Andrii Vanikhin</t>
@@ -90,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,11 +394,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -417,213 +420,63 @@
         <v>2</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7A3A4-9B33-4BD1-96B1-6D3B7C1DD1FD}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7A3A4-9B33-4BD1-96B1-6D3B7C1DD1FD}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -638,7 +491,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -648,17 +501,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -666,13 +514,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -897,13 +860,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FA8478-C49D-471B-86F7-6B09072E1665}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3933480-A8CD-4CDB-8F21-09AB85784D16}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -911,5 +877,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3933480-A8CD-4CDB-8F21-09AB85784D16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FA8478-C49D-471B-86F7-6B09072E1665}"/>
 </file>
--- a/duties.xlsx
+++ b/duties.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{AB9B4D63-DF54-402B-BD0C-417A84B24F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E56DEF97-7CE6-4325-9CA7-B6CF9995217B}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{AB9B4D63-DF54-402B-BD0C-417A84B24F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD775F39-6C35-4FBE-B10A-93F1E74B3ADF}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,86 +544,86 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -633,9 +633,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,16 +863,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3933480-A8CD-4CDB-8F21-09AB85784D16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FA8478-C49D-471B-86F7-6B09072E1665}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,5 +877,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FA8478-C49D-471B-86F7-6B09072E1665}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3933480-A8CD-4CDB-8F21-09AB85784D16}"/>
 </file>